--- a/public/file/Company-Table-header.xlsx
+++ b/public/file/Company-Table-header.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dpim\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 งาน\รายละเอียด dpim\ข้อมูลExcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99D586-951D-4295-B9FA-E5933220A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9868F9-69EA-4B45-A134-45489CC2E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-252" yWindow="864" windowWidth="17280" windowHeight="8964" xr2:uid="{35AC07AA-D25C-4DBB-B2BE-B1AADF47F469}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35AC07AA-D25C-4DBB-B2BE-B1AADF47F469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,70 +35,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>จังหวัด</t>
-  </si>
-  <si>
-    <t>อำเภอ</t>
-  </si>
-  <si>
-    <t>ตำบล</t>
-  </si>
-  <si>
-    <t>เลขที่หมายเลขประทานบัตร/ใบอนุญาต</t>
-  </si>
-  <si>
-    <t>ประเภทสถานประกอบการ</t>
-  </si>
-  <si>
-    <t>ชื่อสถานประกอบการ</t>
-  </si>
-  <si>
-    <t>วันที่ออกประทานบัตร/ใบอนุญาต</t>
-  </si>
-  <si>
-    <t>วันที่ประทานบัตร/ใบอนุญาตสิ้นอายุ</t>
-  </si>
-  <si>
-    <t>ที่ตั้ง</t>
-  </si>
-  <si>
-    <t>ชนิดแร่หลัก</t>
-  </si>
-  <si>
-    <t>รหัสไปรษณีย์</t>
-  </si>
-  <si>
-    <t>หมายเลขโทรศัพท์</t>
-  </si>
-  <si>
-    <t>คำนำหน้าชื่อ</t>
-  </si>
-  <si>
-    <t>ชื่อ</t>
-  </si>
-  <si>
-    <t>นามสกุล</t>
-  </si>
-  <si>
-    <t>อีเมล</t>
-  </si>
-  <si>
-    <t>รหัสผ่าน</t>
-  </si>
-  <si>
-    <t>ยืนยันรหัสผ่าน</t>
-  </si>
-  <si>
-    <t>ตำแหน่ง (ผู้บริการ/HR)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>company_type</t>
+  </si>
+  <si>
+    <t>company_license_no</t>
+  </si>
+  <si>
+    <t>license_no_start</t>
+  </si>
+  <si>
+    <t>license_no_end</t>
+  </si>
+  <si>
+    <t>address_company</t>
+  </si>
+  <si>
+    <t>provines_company</t>
+  </si>
+  <si>
+    <t>amphur_company</t>
+  </si>
+  <si>
+    <t>tumbon_company</t>
+  </si>
+  <si>
+    <t>postcode_company</t>
+  </si>
+  <si>
+    <t>mineral_main</t>
+  </si>
+  <si>
+    <t>mineral_sub</t>
+  </si>
+  <si>
+    <t>phone_compamy</t>
+  </si>
+  <si>
+    <t>title_people</t>
+  </si>
+  <si>
+    <t>fname_people</t>
+  </si>
+  <si>
+    <t>phone_people</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>โรงโม่หิน</t>
+  </si>
+  <si>
+    <t>กรุงเทพ</t>
+  </si>
+  <si>
+    <t>บางแค</t>
+  </si>
+  <si>
+    <t>ทองคำ</t>
+  </si>
+  <si>
+    <t>ทองคำขาว</t>
+  </si>
+  <si>
+    <t>นาย</t>
+  </si>
+  <si>
+    <t>ทองดี</t>
+  </si>
+  <si>
+    <t>0885552222</t>
+  </si>
+  <si>
+    <t>lname_people</t>
+  </si>
+  <si>
+    <t>03/03</t>
+  </si>
+  <si>
+    <t>ศักดิ์สิทธิ์</t>
+  </si>
+  <si>
+    <t>เจริญดี</t>
+  </si>
+  <si>
+    <t>0998887777</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>orangesrfg222</t>
+  </si>
+  <si>
+    <t>orangebsdgb223</t>
+  </si>
+  <si>
+    <t>tset</t>
+  </si>
+  <si>
+    <t>ceo4@gmail.com</t>
+  </si>
+  <si>
+    <t>hr4@gmail.com</t>
+  </si>
+  <si>
+    <t>ผู้บริหาร</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +172,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,10 +234,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,8 +246,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,77 +575,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A72D3C-0660-45E4-BB5D-95038B434E62}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="69" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
+    </row>
+    <row r="2" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45071</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47628</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1">
+        <v>74551</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45071</v>
+      </c>
+      <c r="E3" s="4">
+        <v>47628</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
+        <v>74551</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="2">
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{9BB9E8F7-8EA8-4FCD-9BC2-F29CCF0186EA}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{5CF1999D-01F4-47EE-850F-9DC20EC1B619}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>